--- a/DeteccionPuntoR48Registros.xlsx
+++ b/DeteccionPuntoR48Registros.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A91FDB2-464D-4142-8880-EAC8CA0BF863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F049664-26AC-4576-83A5-07C9D11C0F8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A94274BC-CB49-4EC8-9C74-5CEF9964271C}"/>
   </bookViews>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A5CD11-4018-4412-B958-2226889EC2F5}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I50" sqref="A1:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DeteccionPuntoR48Registros.xlsx
+++ b/DeteccionPuntoR48Registros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F049664-26AC-4576-83A5-07C9D11C0F8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2F2AF5-2392-4863-A829-9BC1EDBC56D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A94274BC-CB49-4EC8-9C74-5CEF9964271C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A94274BC-CB49-4EC8-9C74-5CEF9964271C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>registromit</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>234m</t>
+  </si>
+  <si>
+    <t>48 registros</t>
   </si>
 </sst>
 </file>
@@ -558,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A5CD11-4018-4412-B958-2226889EC2F5}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I50" sqref="A1:I50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,6 +1989,9 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
       <c r="B50">
         <f>SUM(B2:B49)</f>
         <v>109940</v>

--- a/DeteccionPuntoR48Registros.xlsx
+++ b/DeteccionPuntoR48Registros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\algoritmoArritmias_conPanTompkins2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4A810C-ACAA-45C4-8DDD-25EB9FD5FCFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FEB225-AA56-4D93-BAD8-4A7BFB36A1B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{EBAD821A-D95A-4AC5-BEE4-A4B850BF615D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EBAD821A-D95A-4AC5-BEE4-A4B850BF615D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>registromit</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>234m</t>
+  </si>
+  <si>
+    <t>48 registros</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G50" sqref="A1:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,7 +2082,9 @@
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B50" s="1">
         <f>SUM(B2:B49)</f>
         <v>109940</v>
